--- a/nodes_source_analyses/industry/industry_other_paper_heater_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_other_paper_heater_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,8 +42,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -182,9 +190,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -575,6 +580,10 @@
       <t>useable_heat</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -585,7 +594,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -794,11 +803,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1416,7 +1420,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1718,20 +1722,20 @@
     <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1751,13 +1755,13 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1816,16 +1820,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1839,9 +1843,9 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1863,7 +1867,7 @@
     <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1874,34 +1878,34 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2399,77 +2403,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2683,7 +2617,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2796,7 +2730,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3187,50 +3121,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3239,29 +3173,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="74" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="75"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="76" t="s">
         <v>27</v>
@@ -3270,33 +3204,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="76"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="76"/>
       <c r="C13" s="79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="76" t="s">
         <v>32</v>
@@ -3305,49 +3239,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="76"/>
       <c r="C17" s="81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="76"/>
       <c r="C18" s="82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="76"/>
       <c r="C19" s="83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="84"/>
       <c r="C20" s="85" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="84"/>
       <c r="C21" s="86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="84"/>
       <c r="C22" s="87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="84"/>
       <c r="C23" s="88" t="s">
         <v>40</v>
@@ -3356,86 +3290,83 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="175" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="177"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="176" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="178"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="178"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="180"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="178"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="180"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="181"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="183"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="182"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3446,7 +3377,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1">
+    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3467,7 +3398,7 @@
       </c>
       <c r="J9" s="91"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1">
+    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3478,7 +3409,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>44</v>
@@ -3491,11 +3422,11 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="25"/>
       <c r="C12" s="164" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="41">
@@ -3504,20 +3435,20 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1">
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="184" t="s">
-        <v>141</v>
+      <c r="C13" s="175" t="s">
+        <v>140</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>2</v>
@@ -3528,23 +3459,23 @@
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="109"/>
       <c r="B14" s="110"/>
       <c r="C14" s="155" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="41">
         <f>'Research data'!H9</f>
@@ -3552,20 +3483,20 @@
       </c>
       <c r="F14" s="106"/>
       <c r="G14" s="155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" s="106"/>
       <c r="I14" s="165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J14" s="112"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="109"/>
       <c r="B15" s="110"/>
       <c r="C15" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="41">
@@ -3576,15 +3507,15 @@
       <c r="G15" s="106"/>
       <c r="H15" s="106"/>
       <c r="I15" s="174" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J15" s="112"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="110"/>
       <c r="C16" s="106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2</v>
@@ -3597,14 +3528,14 @@
       <c r="G16" s="106"/>
       <c r="H16" s="106"/>
       <c r="I16" s="174" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" s="112"/>
     </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="110"/>
       <c r="C17" s="106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
@@ -3616,11 +3547,11 @@
       <c r="G17" s="106"/>
       <c r="H17" s="106"/>
       <c r="I17" s="174" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J17" s="112"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="40"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -3631,7 +3562,7 @@
       <c r="I18" s="36"/>
       <c r="J18" s="92"/>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
@@ -3644,7 +3575,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="92"/>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="39" t="s">
         <v>22</v>
@@ -3662,17 +3593,17 @@
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J20" s="92"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="41">
         <f>'Research data'!H19</f>
@@ -3680,21 +3611,21 @@
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="142" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J21" s="92"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="134"/>
       <c r="C22" s="141" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="41">
         <f>'Research data'!H22</f>
@@ -3702,18 +3633,18 @@
       </c>
       <c r="F22" s="137"/>
       <c r="G22" s="135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H22" s="137"/>
       <c r="I22" s="166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J22" s="138"/>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="134"/>
       <c r="C23" s="141" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="136"/>
       <c r="E23" s="41">
@@ -3722,18 +3653,18 @@
       </c>
       <c r="F23" s="137"/>
       <c r="G23" s="141" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H23" s="137"/>
       <c r="I23" s="150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J23" s="138"/>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1">
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="134"/>
       <c r="C24" s="141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="136"/>
       <c r="E24" s="41">
@@ -3742,18 +3673,18 @@
       </c>
       <c r="F24" s="137"/>
       <c r="G24" s="141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="137"/>
       <c r="I24" s="173" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J24" s="138"/>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="134"/>
       <c r="C25" s="151" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="136"/>
       <c r="E25" s="41">
@@ -3762,18 +3693,18 @@
       </c>
       <c r="F25" s="137"/>
       <c r="G25" s="141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="137"/>
       <c r="I25" s="173" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J25" s="138"/>
     </row>
-    <row r="26" spans="1:10" ht="16" thickBot="1">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="134"/>
       <c r="C26" s="141" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="136"/>
       <c r="E26" s="41">
@@ -3782,44 +3713,44 @@
       </c>
       <c r="F26" s="137"/>
       <c r="G26" s="142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" s="137"/>
       <c r="I26" s="150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" s="138"/>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="109"/>
       <c r="B27" s="110"/>
       <c r="C27" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>64</v>
       </c>
       <c r="E27" s="113">
         <v>0.1</v>
       </c>
       <c r="F27" s="106"/>
       <c r="G27" s="106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="106"/>
       <c r="I27" s="174" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J27" s="112"/>
     </row>
-    <row r="28" spans="1:10" ht="16" thickBot="1">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="109"/>
       <c r="B28" s="110"/>
       <c r="C28" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="E28" s="113">
         <v>0</v>
@@ -3828,11 +3759,11 @@
       <c r="G28" s="106"/>
       <c r="H28" s="106"/>
       <c r="I28" s="174" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="112"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="109"/>
       <c r="B29" s="110"/>
       <c r="C29" s="106"/>
@@ -3844,7 +3775,7 @@
       <c r="I29" s="114"/>
       <c r="J29" s="112"/>
     </row>
-    <row r="30" spans="1:10" ht="16" thickBot="1">
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="109"/>
       <c r="B30" s="110"/>
       <c r="C30" s="13" t="s">
@@ -3857,7 +3788,7 @@
       <c r="I30" s="114"/>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:10" ht="16" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="109"/>
       <c r="B31" s="110"/>
       <c r="C31" s="106" t="s">
@@ -3872,19 +3803,19 @@
       </c>
       <c r="F31" s="106"/>
       <c r="G31" s="106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="106"/>
       <c r="I31" s="166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J31" s="112"/>
     </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1">
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="109"/>
       <c r="B32" s="110"/>
       <c r="C32" s="106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>1</v>
@@ -3895,20 +3826,20 @@
       </c>
       <c r="F32" s="106"/>
       <c r="G32" s="106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="106"/>
       <c r="I32" s="108"/>
       <c r="J32" s="112"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="109"/>
       <c r="B33" s="110"/>
       <c r="C33" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="E33" s="113">
         <f>'Research data'!H32</f>
@@ -3916,13 +3847,13 @@
       </c>
       <c r="F33" s="106"/>
       <c r="G33" s="106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H33" s="106"/>
       <c r="I33" s="108"/>
       <c r="J33" s="112"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="109"/>
       <c r="B34" s="110"/>
       <c r="C34" s="106" t="s">
@@ -3938,11 +3869,11 @@
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
       <c r="I34" s="174" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="109"/>
       <c r="B35" s="117"/>
       <c r="C35" s="118"/>
@@ -3954,7 +3885,7 @@
       <c r="I35" s="118"/>
       <c r="J35" s="119"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="109"/>
       <c r="B36" s="109"/>
       <c r="C36" s="109"/>
@@ -3966,7 +3897,7 @@
       <c r="I36" s="109"/>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="109"/>
       <c r="B37" s="109"/>
       <c r="C37" s="109"/>
@@ -3978,7 +3909,7 @@
       <c r="I37" s="109"/>
       <c r="J37" s="109"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="109"/>
       <c r="B38" s="109"/>
       <c r="C38" s="109"/>
@@ -3990,7 +3921,7 @@
       <c r="I38" s="109"/>
       <c r="J38" s="109"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="109"/>
       <c r="B39" s="109"/>
       <c r="E39" s="109"/>
@@ -4000,7 +3931,7 @@
       <c r="I39" s="109"/>
       <c r="J39" s="109"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="109"/>
       <c r="B40" s="109"/>
       <c r="C40" s="109"/>
@@ -4012,7 +3943,7 @@
       <c r="I40" s="109"/>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="109"/>
       <c r="B41" s="109"/>
       <c r="C41" s="109"/>
@@ -4024,7 +3955,7 @@
       <c r="I41" s="109"/>
       <c r="J41" s="109"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="109"/>
       <c r="B42" s="109"/>
       <c r="C42" s="109"/>
@@ -4036,7 +3967,7 @@
       <c r="I42" s="109"/>
       <c r="J42" s="109"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="109"/>
       <c r="B43" s="109"/>
       <c r="C43" s="109"/>
@@ -4048,10 +3979,10 @@
       <c r="I43" s="109"/>
       <c r="J43" s="109"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="109"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="109"/>
     </row>
   </sheetData>
@@ -4060,43 +3991,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4111,30 +4005,30 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="37.25" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" style="42" customWidth="1"/>
     <col min="15" max="15" width="11" style="42" customWidth="1"/>
-    <col min="16" max="16" width="2.5" style="42" customWidth="1"/>
-    <col min="17" max="17" width="22.375" style="42" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="42"/>
+    <col min="16" max="16" width="2.42578125" style="42" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="42" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="16" thickBot="1"/>
-    <row r="3" spans="1:17">
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4152,7 +4046,7 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
     </row>
-    <row r="4" spans="1:17" s="26" customFormat="1">
+    <row r="4" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="89" t="s">
         <v>19</v>
@@ -4164,22 +4058,22 @@
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="89"/>
       <c r="J4" s="89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M4" s="89"/>
       <c r="N4" s="89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -4194,7 +4088,7 @@
       <c r="M5" s="47"/>
       <c r="N5" s="54"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4211,10 +4105,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="52"/>
     </row>
-    <row r="7" spans="1:17" ht="16" thickBot="1">
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="160" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
@@ -4234,10 +4128,10 @@
       <c r="M7" s="47"/>
       <c r="N7" s="105"/>
     </row>
-    <row r="8" spans="1:17" ht="16" thickBot="1">
+    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -4259,15 +4153,15 @@
       <c r="M8" s="47"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:17" ht="16" thickBot="1">
+    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="155" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="90"/>
       <c r="H9" s="161">
@@ -4283,11 +4177,11 @@
       <c r="M9" s="47"/>
       <c r="N9" s="105"/>
     </row>
-    <row r="10" spans="1:17" ht="16" thickBot="1">
+    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -4309,16 +4203,16 @@
       <c r="N10" s="140"/>
       <c r="O10" s="109"/>
     </row>
-    <row r="11" spans="1:17" ht="16" thickBot="1">
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="109"/>
       <c r="B11" s="110"/>
       <c r="C11" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="107"/>
       <c r="E11" s="107"/>
       <c r="F11" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="111">
         <f>L11</f>
@@ -4332,15 +4226,15 @@
       </c>
       <c r="M11" s="109"/>
       <c r="N11" s="140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O11" s="109"/>
     </row>
-    <row r="12" spans="1:17" ht="16" thickBot="1">
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="109"/>
       <c r="B12" s="110"/>
       <c r="C12" s="106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -4355,11 +4249,11 @@
       <c r="N12" s="140"/>
       <c r="O12" s="109"/>
     </row>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="109"/>
       <c r="B13" s="110"/>
       <c r="C13" s="106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -4375,11 +4269,11 @@
       <c r="N13" s="140"/>
       <c r="O13" s="109"/>
     </row>
-    <row r="14" spans="1:17" ht="16" thickBot="1">
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="109"/>
       <c r="B14" s="110"/>
       <c r="C14" s="106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4392,7 +4286,7 @@
       <c r="N14" s="140"/>
       <c r="O14" s="109"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="45"/>
       <c r="H15" s="48"/>
       <c r="I15" s="106"/>
@@ -4402,7 +4296,7 @@
       <c r="M15" s="47"/>
       <c r="N15" s="140"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="109"/>
       <c r="B16" s="110"/>
       <c r="C16" s="34"/>
@@ -4415,7 +4309,7 @@
       <c r="M16" s="122"/>
       <c r="N16" s="54"/>
     </row>
-    <row r="17" spans="1:14" ht="16" thickBot="1">
+    <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109"/>
       <c r="B17" s="110"/>
       <c r="C17" s="12" t="s">
@@ -4430,11 +4324,11 @@
       <c r="M17" s="122"/>
       <c r="N17" s="105"/>
     </row>
-    <row r="18" spans="1:14" ht="16" thickBot="1">
+    <row r="18" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="109"/>
       <c r="B18" s="110"/>
       <c r="C18" s="125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="120"/>
       <c r="E18" s="120"/>
@@ -4453,14 +4347,14 @@
       <c r="K18" s="122"/>
       <c r="N18" s="105"/>
     </row>
-    <row r="19" spans="1:14" ht="16" thickBot="1">
+    <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="109"/>
       <c r="B19" s="110"/>
       <c r="C19" s="125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="126">
         <f>J19</f>
@@ -4473,14 +4367,14 @@
       <c r="L19" s="122"/>
       <c r="M19" s="122"/>
       <c r="N19" s="130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="109"/>
       <c r="B20" s="110"/>
       <c r="C20" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="127" t="s">
         <v>20</v>
@@ -4496,17 +4390,17 @@
       <c r="L20" s="122"/>
       <c r="M20" s="122"/>
       <c r="N20" s="130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="16" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="109"/>
       <c r="B21" s="110"/>
       <c r="C21" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="162">
         <f>J21</f>
@@ -4516,17 +4410,17 @@
       <c r="L21" s="122"/>
       <c r="M21" s="115"/>
       <c r="N21" s="130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="16" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="109"/>
       <c r="B22" s="110"/>
       <c r="C22" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="162">
         <f>H20/H11</f>
@@ -4536,14 +4430,14 @@
       <c r="L22" s="123"/>
       <c r="M22" s="115"/>
       <c r="N22" s="130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="16" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="144"/>
       <c r="B23" s="145"/>
       <c r="C23" s="143" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="144"/>
       <c r="E23" s="144"/>
@@ -4562,14 +4456,14 @@
       <c r="K23" s="147"/>
       <c r="M23" s="144"/>
       <c r="N23" s="148" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="16" thickBot="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="144"/>
       <c r="B24" s="145"/>
       <c r="C24" s="143" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="144"/>
       <c r="E24" s="144"/>
@@ -4588,14 +4482,14 @@
       <c r="K24" s="147"/>
       <c r="M24" s="144"/>
       <c r="N24" s="148" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="16" thickBot="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="109"/>
       <c r="B25" s="110"/>
       <c r="C25" s="143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="143" t="s">
         <v>20</v>
@@ -4613,16 +4507,16 @@
       <c r="M25" s="115"/>
       <c r="N25" s="130"/>
     </row>
-    <row r="26" spans="1:14" ht="16" thickBot="1">
+    <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="144"/>
       <c r="B26" s="145"/>
       <c r="C26" s="149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="144"/>
       <c r="E26" s="144"/>
       <c r="F26" s="143" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="144"/>
       <c r="H26" s="146">
@@ -4636,23 +4530,23 @@
       <c r="K26" s="147"/>
       <c r="M26" s="144"/>
       <c r="N26" s="140" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="144"/>
       <c r="B27" s="145"/>
       <c r="H27" s="48"/>
       <c r="J27" s="48"/>
       <c r="N27" s="52"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="45"/>
       <c r="H28" s="48"/>
       <c r="J28" s="48"/>
       <c r="N28" s="105"/>
     </row>
-    <row r="29" spans="1:14" ht="16" thickBot="1">
+    <row r="29" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="109"/>
       <c r="B29" s="110"/>
       <c r="C29" s="34" t="s">
@@ -4667,7 +4561,7 @@
       <c r="M29" s="11"/>
       <c r="N29" s="140"/>
     </row>
-    <row r="30" spans="1:14" ht="16" thickBot="1">
+    <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="109"/>
       <c r="B30" s="110"/>
       <c r="C30" s="124" t="s">
@@ -4690,11 +4584,11 @@
       <c r="M30" s="123"/>
       <c r="N30" s="140"/>
     </row>
-    <row r="31" spans="1:14" ht="16" thickBot="1">
+    <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="109"/>
       <c r="B31" s="110"/>
       <c r="C31" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" s="121" t="s">
         <v>1</v>
@@ -4709,14 +4603,14 @@
       <c r="M31" s="123"/>
       <c r="N31" s="140"/>
     </row>
-    <row r="32" spans="1:14" ht="16" thickBot="1">
+    <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="109"/>
       <c r="B32" s="110"/>
       <c r="C32" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="126">
         <f>L32</f>
@@ -4728,7 +4622,7 @@
       <c r="M32" s="11"/>
       <c r="N32" s="130"/>
     </row>
-    <row r="33" spans="1:14" ht="16" thickBot="1">
+    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="109"/>
       <c r="B33" s="110"/>
       <c r="C33" s="102" t="s">
@@ -4741,51 +4635,51 @@
       <c r="J33" s="48"/>
       <c r="N33" s="105"/>
     </row>
-    <row r="34" spans="1:14" ht="16" thickBot="1">
+    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="109"/>
       <c r="B34" s="110"/>
       <c r="C34" s="106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34" s="111"/>
       <c r="J34" s="48"/>
       <c r="N34" s="140"/>
     </row>
-    <row r="35" spans="1:14" ht="16" thickBot="1">
+    <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="109"/>
       <c r="B35" s="110"/>
       <c r="C35" s="106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="111"/>
       <c r="J35" s="48"/>
       <c r="N35" s="140"/>
     </row>
-    <row r="36" spans="1:14" ht="16" thickBot="1">
+    <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="109"/>
       <c r="B36" s="110"/>
       <c r="C36" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H36" s="111"/>
       <c r="J36" s="48"/>
       <c r="N36" s="140"/>
     </row>
-    <row r="37" spans="1:14" ht="16" thickBot="1">
+    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109"/>
       <c r="B37" s="110"/>
       <c r="C37" s="106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" s="111"/>
       <c r="J37" s="48"/>
       <c r="N37" s="140"/>
     </row>
-    <row r="38" spans="1:14" ht="16" thickBot="1">
+    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="109"/>
       <c r="B38" s="110"/>
       <c r="C38" s="106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" s="111"/>
       <c r="J38" s="48"/>
@@ -4794,11 +4688,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4813,22 +4702,22 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="56" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="56" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="56" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="56" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="56" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="61" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="56"/>
+    <col min="1" max="1" width="3.42578125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="56" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="56" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="61" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="61" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="56" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -4839,7 +4728,7 @@
       <c r="I2" s="62"/>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="59"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -4852,7 +4741,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="59"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -4863,7 +4752,7 @@
       <c r="I4" s="63"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="64"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -4878,19 +4767,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="59"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4901,16 +4790,16 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" ht="16">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="59"/>
       <c r="C7" s="157" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="158" t="s">
         <v>111</v>
-      </c>
-      <c r="D7" s="158" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="158" t="s">
-        <v>112</v>
       </c>
       <c r="F7" s="55">
         <v>2015</v>
@@ -4922,16 +4811,16 @@
         <v>42558</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="159" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="59"/>
       <c r="C8" s="156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -4941,7 +4830,7 @@
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="59"/>
       <c r="C9" s="109" t="s">
         <v>24</v>
@@ -4953,10 +4842,10 @@
       <c r="H9" s="101"/>
       <c r="I9" s="55"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
       <c r="C10" s="128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
@@ -4966,10 +4855,10 @@
       <c r="I10" s="98"/>
       <c r="J10" s="97"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="59"/>
       <c r="C11" s="129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
@@ -4979,10 +4868,10 @@
       <c r="I11" s="55"/>
       <c r="J11" s="114"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="59"/>
       <c r="C12" s="128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
@@ -4992,7 +4881,7 @@
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="59"/>
       <c r="C13" s="129"/>
       <c r="D13" s="55"/>
@@ -5003,7 +4892,7 @@
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="59"/>
       <c r="C14" s="109"/>
       <c r="D14" s="133"/>
@@ -5014,7 +4903,7 @@
       <c r="I14" s="114"/>
       <c r="J14" s="96"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="59"/>
       <c r="E15" s="104"/>
       <c r="F15" s="55"/>
@@ -5023,7 +4912,7 @@
       <c r="I15" s="114"/>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="59"/>
       <c r="C16" s="157"/>
       <c r="D16" s="109"/>
@@ -5034,22 +4923,22 @@
       <c r="I16" s="114"/>
       <c r="J16" s="55"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="59"/>
       <c r="C17" s="156"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="59"/>
       <c r="C18" s="109"/>
     </row>
-    <row r="19" spans="2:10" ht="16">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="59"/>
       <c r="C19" s="167"/>
       <c r="D19" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="170" t="s">
         <v>120</v>
-      </c>
-      <c r="E19" s="170" t="s">
-        <v>121</v>
       </c>
       <c r="F19" s="56">
         <v>2015</v>
@@ -5061,10 +4950,10 @@
         <v>42612</v>
       </c>
       <c r="J19" s="171" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="59"/>
       <c r="C20" s="129"/>
       <c r="D20" s="55"/>
@@ -5075,16 +4964,16 @@
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
     </row>
-    <row r="21" spans="2:10" ht="16">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="59"/>
       <c r="C21" s="167" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="168" t="s">
-        <v>117</v>
-      </c>
       <c r="E21" s="168" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="55">
         <v>2013</v>
@@ -5096,13 +4985,13 @@
         <v>42612</v>
       </c>
       <c r="I21" s="98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" s="169" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="59"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -5112,11 +5001,11 @@
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H30" s="172"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1"/>
     <hyperlink ref="J21" r:id="rId2"/>
@@ -5124,11 +5013,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5143,23 +5027,23 @@
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="65" customWidth="1"/>
     <col min="4" max="4" width="4" style="65" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="65" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="65"/>
-    <col min="14" max="14" width="15.75" style="65" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="65"/>
-    <col min="16" max="16" width="54.75" style="65" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="65"/>
+    <col min="5" max="5" width="13.140625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="65" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="65"/>
+    <col min="14" max="14" width="15.7109375" style="65" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="65"/>
+    <col min="16" max="16" width="54.7109375" style="65" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1"/>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -5174,14 +5058,14 @@
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="94"/>
       <c r="C3" s="73" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="73" t="s">
         <v>25</v>
@@ -5196,7 +5080,7 @@
       <c r="M3" s="70"/>
       <c r="N3" s="95"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -5212,7 +5096,7 @@
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="71"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -5227,7 +5111,7 @@
       <c r="N5" s="72"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="71"/>
       <c r="D6" s="72"/>
       <c r="G6" s="72"/>
@@ -5240,7 +5124,7 @@
       <c r="N6" s="72"/>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="71"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
@@ -5255,7 +5139,7 @@
       <c r="N7" s="72"/>
       <c r="O7" s="72"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="71"/>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -5270,7 +5154,7 @@
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="71"/>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
@@ -5286,7 +5170,7 @@
       <c r="N9" s="72"/>
       <c r="O9" s="72"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="71"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
@@ -5302,7 +5186,7 @@
       <c r="N10" s="72"/>
       <c r="O10" s="72"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="71"/>
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
@@ -5318,7 +5202,7 @@
       <c r="N11" s="72"/>
       <c r="O11" s="72"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="71"/>
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
@@ -5334,7 +5218,7 @@
       <c r="N12" s="72"/>
       <c r="O12" s="72"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="71"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
@@ -5350,7 +5234,7 @@
       <c r="N13" s="72"/>
       <c r="O13" s="72"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
@@ -5366,7 +5250,7 @@
       <c r="N14" s="72"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="71"/>
       <c r="E15" s="72"/>
       <c r="F15" s="72"/>
@@ -5380,10 +5264,10 @@
       <c r="N15" s="72"/>
       <c r="O15" s="72"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="71"/>
       <c r="C16" s="72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
@@ -5398,7 +5282,7 @@
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="71"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
@@ -5406,10 +5290,10 @@
         <v>2190</v>
       </c>
       <c r="F17" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="65" t="s">
         <v>136</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>137</v>
       </c>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
@@ -5419,12 +5303,12 @@
       <c r="N17" s="72"/>
       <c r="O17" s="72"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="71"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="G18" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
@@ -5434,7 +5318,7 @@
       <c r="N18" s="72"/>
       <c r="O18" s="72"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="71"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
@@ -5450,7 +5334,7 @@
       <c r="N19" s="72"/>
       <c r="O19" s="72"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="71"/>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
@@ -5466,7 +5350,7 @@
       <c r="N20" s="72"/>
       <c r="O20" s="72"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="71"/>
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
@@ -5482,7 +5366,7 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="71"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
@@ -5498,7 +5382,7 @@
       <c r="N22" s="72"/>
       <c r="O22" s="72"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="71"/>
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
@@ -5514,10 +5398,10 @@
       <c r="N23" s="72"/>
       <c r="O23" s="72"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="71"/>
       <c r="C24" s="72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="72">
         <v>89</v>
@@ -5534,7 +5418,7 @@
       <c r="N24" s="72"/>
       <c r="O24" s="72"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="71"/>
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>
@@ -5550,7 +5434,7 @@
       <c r="N25" s="72"/>
       <c r="O25" s="72"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="71"/>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
@@ -5566,7 +5450,7 @@
       <c r="N26" s="72"/>
       <c r="O26" s="72"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="71"/>
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
@@ -5582,7 +5466,7 @@
       <c r="N27" s="72"/>
       <c r="O27" s="72"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
@@ -5598,7 +5482,7 @@
       <c r="N28" s="72"/>
       <c r="O28" s="72"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="71"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -5614,7 +5498,7 @@
       <c r="N29" s="72"/>
       <c r="O29" s="72"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="71"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
@@ -5623,10 +5507,10 @@
         <v>50</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="72"/>
       <c r="I30" s="72"/>
@@ -5637,7 +5521,7 @@
       <c r="N30" s="72"/>
       <c r="O30" s="72"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
@@ -5653,7 +5537,7 @@
       <c r="N31" s="72"/>
       <c r="O31" s="72"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
@@ -5669,7 +5553,7 @@
       <c r="N32" s="72"/>
       <c r="O32" s="72"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="71"/>
       <c r="C33" s="72"/>
       <c r="E33" s="72"/>
@@ -5684,7 +5568,7 @@
       <c r="N33" s="72"/>
       <c r="O33" s="72"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="71"/>
       <c r="E34" s="72"/>
       <c r="H34" s="72"/>
@@ -5696,7 +5580,7 @@
       <c r="N34" s="72"/>
       <c r="O34" s="72"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="71"/>
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
@@ -5712,7 +5596,7 @@
       <c r="N35" s="72"/>
       <c r="O35" s="72"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="71"/>
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
@@ -5728,7 +5612,7 @@
       <c r="N36" s="72"/>
       <c r="O36" s="72"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="71"/>
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
@@ -5744,7 +5628,7 @@
       <c r="N37" s="72"/>
       <c r="O37" s="72"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="71"/>
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
@@ -5758,7 +5642,7 @@
       <c r="N38" s="72"/>
       <c r="O38" s="72"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="71"/>
       <c r="C39" s="72"/>
       <c r="D39" s="72"/>
@@ -5767,7 +5651,7 @@
       </c>
       <c r="F39" s="72"/>
       <c r="G39" s="152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H39" s="152"/>
       <c r="I39" s="152"/>
@@ -5778,7 +5662,7 @@
       <c r="N39" s="72"/>
       <c r="O39" s="72"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="71"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -5794,7 +5678,7 @@
       <c r="N40" s="72"/>
       <c r="O40" s="72"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="71"/>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
@@ -5810,7 +5694,7 @@
       <c r="N41" s="72"/>
       <c r="O41" s="72"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="71"/>
       <c r="C42" s="72"/>
       <c r="K42" s="72"/>
@@ -5819,7 +5703,7 @@
       <c r="N42" s="72"/>
       <c r="O42" s="72"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="71"/>
       <c r="C43" s="72"/>
       <c r="K43" s="72"/>
@@ -5828,7 +5712,7 @@
       <c r="N43" s="72"/>
       <c r="O43" s="72"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="71"/>
       <c r="C44" s="72"/>
       <c r="K44" s="72"/>
@@ -5837,7 +5721,7 @@
       <c r="N44" s="72"/>
       <c r="O44" s="72"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="71"/>
       <c r="C45" s="72"/>
       <c r="K45" s="72"/>
@@ -5846,7 +5730,7 @@
       <c r="N45" s="72"/>
       <c r="O45" s="72"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="71"/>
       <c r="C46" s="72"/>
       <c r="E46" s="100"/>
@@ -5857,7 +5741,7 @@
       <c r="N46" s="72"/>
       <c r="O46" s="72"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
       <c r="E47" s="72"/>
@@ -5868,14 +5752,14 @@
       <c r="N47" s="72"/>
       <c r="O47" s="72"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="71"/>
       <c r="C48" s="72"/>
       <c r="E48" s="65">
         <v>60</v>
       </c>
       <c r="F48" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K48" s="72"/>
       <c r="L48" s="72"/>
@@ -5883,7 +5767,7 @@
       <c r="N48" s="72"/>
       <c r="O48" s="72"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="71"/>
       <c r="C49" s="72"/>
       <c r="E49" s="65">
@@ -5902,7 +5786,7 @@
       <c r="N49" s="72"/>
       <c r="O49" s="72"/>
     </row>
-    <row r="50" spans="2:15" ht="16">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="71"/>
       <c r="C50" s="72"/>
       <c r="J50"/>
@@ -5912,7 +5796,7 @@
       <c r="N50" s="72"/>
       <c r="O50" s="72"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="71"/>
       <c r="D51" s="72"/>
       <c r="K51" s="72"/>
@@ -5921,7 +5805,7 @@
       <c r="N51" s="72"/>
       <c r="O51" s="72"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="71"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -5929,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
@@ -5937,7 +5821,7 @@
       <c r="N52" s="72"/>
       <c r="O52" s="72"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="71"/>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
@@ -5949,7 +5833,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
@@ -5957,7 +5841,7 @@
       <c r="N53" s="72"/>
       <c r="O53" s="72"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="71"/>
       <c r="C54" s="72"/>
       <c r="D54" s="72"/>
@@ -5965,7 +5849,7 @@
         <v>0.5</v>
       </c>
       <c r="F54" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K54" s="72"/>
       <c r="L54" s="72"/>
@@ -5973,7 +5857,7 @@
       <c r="N54" s="72"/>
       <c r="O54" s="72"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="71"/>
       <c r="C55" s="72"/>
       <c r="D55" s="72"/>
@@ -5985,7 +5869,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K55" s="72"/>
       <c r="L55" s="72"/>
@@ -5993,7 +5877,7 @@
       <c r="N55" s="72"/>
       <c r="O55" s="72"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="71"/>
       <c r="C56" s="72"/>
       <c r="K56" s="72"/>
@@ -6002,14 +5886,14 @@
       <c r="N56" s="72"/>
       <c r="O56" s="72"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="71"/>
       <c r="C57" s="72"/>
       <c r="E57" s="65">
         <v>15</v>
       </c>
       <c r="F57" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G57" s="65" t="s">
         <v>24</v>
@@ -6020,7 +5904,7 @@
       <c r="N57" s="72"/>
       <c r="O57" s="72"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="71"/>
       <c r="C58" s="72"/>
       <c r="K58" s="72"/>
@@ -6029,7 +5913,7 @@
       <c r="N58" s="72"/>
       <c r="O58" s="72"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="71"/>
       <c r="C59" s="72"/>
       <c r="K59" s="72"/>
@@ -6038,7 +5922,7 @@
       <c r="N59" s="72"/>
       <c r="O59" s="72"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="71"/>
       <c r="C60" s="72"/>
       <c r="K60" s="72"/>
@@ -6047,7 +5931,7 @@
       <c r="N60" s="72"/>
       <c r="O60" s="72"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="71"/>
       <c r="C61" s="72"/>
       <c r="K61" s="72"/>
@@ -6056,7 +5940,7 @@
       <c r="N61" s="72"/>
       <c r="O61" s="72"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="71"/>
       <c r="C62" s="72"/>
       <c r="K62" s="72"/>
@@ -6065,7 +5949,7 @@
       <c r="N62" s="72"/>
       <c r="O62" s="72"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="71"/>
       <c r="C63" s="72"/>
       <c r="K63" s="72"/>
@@ -6074,7 +5958,7 @@
       <c r="N63" s="72"/>
       <c r="O63" s="72"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="71"/>
       <c r="C64" s="72"/>
       <c r="K64" s="72"/>
@@ -6083,7 +5967,7 @@
       <c r="N64" s="72"/>
       <c r="O64" s="72"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="71"/>
       <c r="C65" s="72"/>
       <c r="K65" s="72"/>
@@ -6092,7 +5976,7 @@
       <c r="N65" s="72"/>
       <c r="O65" s="72"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="71"/>
       <c r="C66" s="72"/>
       <c r="K66" s="72"/>
@@ -6101,7 +5985,7 @@
       <c r="N66" s="72"/>
       <c r="O66" s="72"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="71"/>
       <c r="C67" s="72"/>
       <c r="K67" s="72"/>
@@ -6110,7 +5994,7 @@
       <c r="N67" s="72"/>
       <c r="O67" s="72"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="71"/>
       <c r="C68" s="72"/>
       <c r="K68" s="72"/>
@@ -6119,7 +6003,7 @@
       <c r="N68" s="72"/>
       <c r="O68" s="72"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="71"/>
       <c r="C69" s="72"/>
       <c r="K69" s="72"/>
@@ -6128,7 +6012,7 @@
       <c r="N69" s="72"/>
       <c r="O69" s="72"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="71"/>
       <c r="C70" s="72"/>
       <c r="K70" s="72"/>
@@ -6137,682 +6021,682 @@
       <c r="N70" s="72"/>
       <c r="O70" s="72"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="71"/>
       <c r="N71" s="72"/>
       <c r="O71" s="72"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="71"/>
       <c r="N72" s="72"/>
       <c r="O72" s="72"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="71"/>
       <c r="N73" s="72"/>
       <c r="O73" s="72"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="71"/>
       <c r="C74" s="170" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N74" s="72"/>
       <c r="O74" s="72"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="71"/>
       <c r="C75" s="72"/>
       <c r="D75" s="72"/>
       <c r="N75" s="72"/>
       <c r="O75" s="72"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="71"/>
       <c r="C76" s="72"/>
       <c r="N76" s="72"/>
       <c r="O76" s="72"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="71"/>
       <c r="E77" s="153"/>
       <c r="N77" s="72"/>
       <c r="O77" s="72"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="71"/>
       <c r="E78" s="65">
         <v>50</v>
       </c>
       <c r="F78" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G78" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N78" s="72"/>
       <c r="O78" s="72"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="71"/>
       <c r="N79" s="72"/>
       <c r="O79" s="72"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="71"/>
       <c r="F80" s="131"/>
       <c r="N80" s="72"/>
       <c r="O80" s="72"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="71"/>
       <c r="N81" s="72"/>
       <c r="O81" s="72"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="71"/>
       <c r="N82" s="72"/>
       <c r="O82" s="72"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="71"/>
       <c r="N83" s="72"/>
       <c r="O83" s="72"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="71"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="71"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="71"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="71"/>
       <c r="C87" s="72"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="71"/>
       <c r="C88" s="72"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="71"/>
       <c r="C89" s="72"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="71"/>
       <c r="C90" s="72"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="71"/>
       <c r="C91" s="72"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="71"/>
       <c r="C92" s="72"/>
       <c r="E92" s="132"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="71"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="71"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="71"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="71"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="71"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="71"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="71"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="71"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="71"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="71"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="71"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="71"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" s="71"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="71"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="71"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="71"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="71"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="71"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="71"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="71"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="71"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="71"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="71"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="71"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="71"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="71"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="71"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="71"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="71"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="71"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="71"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" s="71"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" s="71"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" s="71"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="71"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" s="71"/>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="71"/>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="71"/>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="71"/>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="71"/>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="71"/>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="71"/>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="71"/>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="71"/>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="71"/>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="71"/>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="71"/>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="71"/>
       <c r="C140" s="65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D140" s="65">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:4">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="71"/>
     </row>
-    <row r="142" spans="2:4">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="71"/>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="71"/>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="71"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="152"/>
       <c r="B145" s="154"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="152"/>
       <c r="B146" s="154"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="152"/>
       <c r="B147" s="154"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="152"/>
       <c r="B148" s="154"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="152"/>
       <c r="B149" s="154"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="152"/>
       <c r="B150" s="154"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="152"/>
       <c r="B151" s="154"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="152"/>
       <c r="B152" s="154"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="152"/>
       <c r="B153" s="154"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="152"/>
       <c r="B154" s="154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="152"/>
       <c r="B155" s="154"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="152"/>
       <c r="B156" s="154"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="152"/>
       <c r="B157" s="154"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="152"/>
       <c r="B158" s="154"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="152"/>
       <c r="B159" s="154"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="152"/>
       <c r="B160" s="154"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="152"/>
       <c r="B161" s="154"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="152"/>
       <c r="B162" s="154"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="152"/>
       <c r="B163" s="154"/>
       <c r="E163" s="65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="152"/>
       <c r="B164" s="154"/>
       <c r="E164" s="65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="152"/>
       <c r="B165" s="154"/>
       <c r="E165" s="65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="152"/>
       <c r="B166" s="154"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="152"/>
       <c r="B167" s="154"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="152"/>
       <c r="B168" s="154"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="152"/>
       <c r="B169" s="154"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="152"/>
       <c r="B170" s="154"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="152"/>
       <c r="B171" s="154"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="152"/>
       <c r="B172" s="154"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="152"/>
       <c r="B173" s="154"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="152"/>
       <c r="B174" s="154"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="152"/>
       <c r="B175" s="154"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="152"/>
       <c r="B176" s="154"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="152"/>
       <c r="B177" s="154"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="152"/>
       <c r="B178" s="154"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="152"/>
       <c r="B179" s="154"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="152"/>
       <c r="B180" s="154"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="152"/>
       <c r="B181" s="154"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="152"/>
       <c r="B182" s="154"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="152"/>
       <c r="B183" s="154"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="152"/>
       <c r="B184" s="154"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="152"/>
       <c r="B185" s="154"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="152"/>
       <c r="B186" s="154"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="152"/>
       <c r="B187" s="154"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="152"/>
       <c r="B188" s="154"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="152"/>
       <c r="B189" s="154"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="152"/>
       <c r="B190" s="154"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="152"/>
       <c r="B191" s="154"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="152"/>
       <c r="B192" s="154"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="152"/>
       <c r="B193" s="154"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="152"/>
       <c r="B194" s="154"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="152"/>
       <c r="B195" s="154"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="152"/>
       <c r="B196" s="154"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="152"/>
       <c r="B197" s="154"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="152"/>
       <c r="B198" s="154"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="152"/>
       <c r="B199" s="154"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="152"/>
       <c r="B200" s="154"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="152"/>
       <c r="B201" s="154"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="152"/>
       <c r="B202" s="154"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="152"/>
       <c r="B203" s="154"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="152"/>
       <c r="B204" s="154"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="152"/>
       <c r="B205" s="154"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="152"/>
       <c r="B206" s="154"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="152"/>
       <c r="B207" s="154"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="152"/>
       <c r="B208" s="154"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="152"/>
       <c r="B209" s="154"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="152"/>
       <c r="B210" s="154"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="152"/>
       <c r="B211" s="154"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="152"/>
       <c r="B212" s="154"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="152"/>
       <c r="B213" s="154"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="152"/>
       <c r="B214" s="154"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="152"/>
       <c r="B215" s="154"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="152"/>
       <c r="B216" s="154"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="152"/>
       <c r="B217" s="154"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="152"/>
       <c r="B218" s="154"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="152"/>
       <c r="B219" s="154"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="152"/>
       <c r="B220" s="154"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="152"/>
       <c r="B221" s="154"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="152"/>
       <c r="B222" s="154"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="152"/>
       <c r="B223" s="154"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="152"/>
       <c r="B224" s="154"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="152"/>
       <c r="B225" s="154"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="152"/>
       <c r="B226" s="154"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="152"/>
       <c r="B227" s="154"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="152"/>
       <c r="B228" s="154"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="152"/>
       <c r="B229" s="154"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="152"/>
       <c r="B230" s="154"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="152"/>
       <c r="B231" s="154"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="152"/>
       <c r="B232" s="154"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="152"/>
       <c r="B233" s="154"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="152"/>
       <c r="B234" s="154"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="152"/>
       <c r="B235" s="154"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="152"/>
       <c r="B236" s="154"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="152"/>
       <c r="B237" s="154"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="152"/>
       <c r="B238" s="154"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="152"/>
       <c r="B239" s="154"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="152"/>
       <c r="B240" s="154"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="152"/>
       <c r="B241" s="154"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="152"/>
       <c r="B242" s="154"/>
     </row>
@@ -6820,10 +6704,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/industry/industry_other_paper_heater_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_other_paper_heater_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD05148-50FC-7140-89AA-F957707E9CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,10 +43,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
   <si>
     <t>Source</t>
   </si>
@@ -584,22 +591,32 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -781,6 +798,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -788,6 +806,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,6 +814,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,17 +822,20 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,12 +843,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -841,11 +866,19 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1143,769 +1176,770 @@
   </borders>
   <cellStyleXfs count="484">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2391,13 +2425,16 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="275"/>
+    <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2415,7 +2452,13 @@
     <xdr:ext cx="3632200" cy="927100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2476,7 +2519,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2514,7 +2563,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2552,7 +2607,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2590,7 +2651,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3111,8 +3178,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -3121,7 +3188,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
@@ -3129,24 +3196,24 @@
     <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3155,7 +3222,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
@@ -3164,7 +3231,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3173,29 +3240,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="74" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="75"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="76" t="s">
         <v>27</v>
@@ -3204,33 +3271,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="76"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="76"/>
       <c r="C13" s="79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="76" t="s">
         <v>32</v>
@@ -3239,49 +3306,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="76"/>
       <c r="C17" s="81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="76"/>
       <c r="C18" s="82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="76"/>
       <c r="C19" s="83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="84"/>
       <c r="C20" s="85" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="84"/>
       <c r="C21" s="86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="84"/>
       <c r="C22" s="87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="84"/>
       <c r="C23" s="88" t="s">
         <v>40</v>
@@ -3294,17 +3361,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
@@ -3319,10 +3386,10 @@
     <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="B2" s="176" t="s">
         <v>141</v>
       </c>
@@ -3332,7 +3399,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="B3" s="179"/>
       <c r="C3" s="180"/>
       <c r="D3" s="180"/>
@@ -3340,7 +3407,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="179"/>
       <c r="C4" s="180"/>
       <c r="D4" s="180"/>
@@ -3348,7 +3415,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="B5" s="182"/>
       <c r="C5" s="183"/>
       <c r="D5" s="183"/>
@@ -3356,17 +3423,17 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3377,7 +3444,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="26" customFormat="1">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3398,7 +3465,7 @@
       </c>
       <c r="J9" s="91"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="26" customFormat="1">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3409,7 +3476,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>44</v>
@@ -3422,7 +3489,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="A12" s="26"/>
       <c r="B12" s="25"/>
       <c r="C12" s="164" t="s">
@@ -3444,7 +3511,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
       <c r="C13" s="175" t="s">
@@ -3468,7 +3535,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="109"/>
       <c r="B14" s="110"/>
       <c r="C14" s="155" t="s">
@@ -3492,7 +3559,7 @@
       <c r="J14" s="112"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="109"/>
       <c r="B15" s="110"/>
       <c r="C15" s="139" t="s">
@@ -3512,7 +3579,7 @@
       <c r="J15" s="112"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="B16" s="110"/>
       <c r="C16" s="106" t="s">
         <v>57</v>
@@ -3532,7 +3599,7 @@
       </c>
       <c r="J16" s="112"/>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17" thickBot="1">
       <c r="B17" s="110"/>
       <c r="C17" s="106" t="s">
         <v>58</v>
@@ -3551,7 +3618,7 @@
       </c>
       <c r="J17" s="112"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="B18" s="40"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -3562,7 +3629,7 @@
       <c r="I18" s="36"/>
       <c r="J18" s="92"/>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="17" thickBot="1">
       <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
@@ -3575,7 +3642,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="92"/>
     </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="17" thickBot="1">
       <c r="B20" s="40"/>
       <c r="C20" s="39" t="s">
         <v>22</v>
@@ -3597,7 +3664,7 @@
       </c>
       <c r="J20" s="92"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>23</v>
@@ -3619,7 +3686,7 @@
       </c>
       <c r="J21" s="92"/>
     </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="17" thickBot="1">
       <c r="B22" s="134"/>
       <c r="C22" s="141" t="s">
         <v>91</v>
@@ -3641,7 +3708,7 @@
       </c>
       <c r="J22" s="138"/>
     </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="17" thickBot="1">
       <c r="B23" s="134"/>
       <c r="C23" s="141" t="s">
         <v>89</v>
@@ -3661,7 +3728,7 @@
       </c>
       <c r="J23" s="138"/>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17" thickBot="1">
       <c r="B24" s="134"/>
       <c r="C24" s="141" t="s">
         <v>90</v>
@@ -3681,7 +3748,7 @@
       </c>
       <c r="J24" s="138"/>
     </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="17" thickBot="1">
       <c r="B25" s="134"/>
       <c r="C25" s="151" t="s">
         <v>101</v>
@@ -3701,7 +3768,7 @@
       </c>
       <c r="J25" s="138"/>
     </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="17" thickBot="1">
       <c r="B26" s="134"/>
       <c r="C26" s="141" t="s">
         <v>92</v>
@@ -3721,7 +3788,7 @@
       </c>
       <c r="J26" s="138"/>
     </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="17" thickBot="1">
       <c r="A27" s="109"/>
       <c r="B27" s="110"/>
       <c r="C27" s="106" t="s">
@@ -3731,19 +3798,19 @@
         <v>63</v>
       </c>
       <c r="E27" s="113">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="106"/>
       <c r="G27" s="106" t="s">
         <v>64</v>
       </c>
       <c r="H27" s="106"/>
-      <c r="I27" s="174" t="s">
-        <v>126</v>
+      <c r="I27" s="185" t="s">
+        <v>142</v>
       </c>
       <c r="J27" s="112"/>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="17" thickBot="1">
       <c r="A28" s="109"/>
       <c r="B28" s="110"/>
       <c r="C28" s="106" t="s">
@@ -3763,7 +3830,7 @@
       </c>
       <c r="J28" s="112"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="109"/>
       <c r="B29" s="110"/>
       <c r="C29" s="106"/>
@@ -3775,7 +3842,7 @@
       <c r="I29" s="114"/>
       <c r="J29" s="112"/>
     </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="17" thickBot="1">
       <c r="A30" s="109"/>
       <c r="B30" s="110"/>
       <c r="C30" s="13" t="s">
@@ -3788,7 +3855,7 @@
       <c r="I30" s="114"/>
       <c r="J30" s="112"/>
     </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="17" thickBot="1">
       <c r="A31" s="109"/>
       <c r="B31" s="110"/>
       <c r="C31" s="106" t="s">
@@ -3811,7 +3878,7 @@
       </c>
       <c r="J31" s="112"/>
     </row>
-    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="17" thickBot="1">
       <c r="A32" s="109"/>
       <c r="B32" s="110"/>
       <c r="C32" s="106" t="s">
@@ -3832,7 +3899,7 @@
       <c r="I32" s="108"/>
       <c r="J32" s="112"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="109"/>
       <c r="B33" s="110"/>
       <c r="C33" s="106" t="s">
@@ -3853,7 +3920,7 @@
       <c r="I33" s="108"/>
       <c r="J33" s="112"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="109"/>
       <c r="B34" s="110"/>
       <c r="C34" s="106" t="s">
@@ -3873,7 +3940,7 @@
       </c>
       <c r="J34" s="112"/>
     </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="109"/>
       <c r="B35" s="117"/>
       <c r="C35" s="118"/>
@@ -3885,7 +3952,7 @@
       <c r="I35" s="118"/>
       <c r="J35" s="119"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="109"/>
       <c r="B36" s="109"/>
       <c r="C36" s="109"/>
@@ -3897,7 +3964,7 @@
       <c r="I36" s="109"/>
       <c r="J36" s="109"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="109"/>
       <c r="B37" s="109"/>
       <c r="C37" s="109"/>
@@ -3909,7 +3976,7 @@
       <c r="I37" s="109"/>
       <c r="J37" s="109"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="109"/>
       <c r="B38" s="109"/>
       <c r="C38" s="109"/>
@@ -3921,7 +3988,7 @@
       <c r="I38" s="109"/>
       <c r="J38" s="109"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="109"/>
       <c r="B39" s="109"/>
       <c r="E39" s="109"/>
@@ -3931,7 +3998,7 @@
       <c r="I39" s="109"/>
       <c r="J39" s="109"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="109"/>
       <c r="B40" s="109"/>
       <c r="C40" s="109"/>
@@ -3943,7 +4010,7 @@
       <c r="I40" s="109"/>
       <c r="J40" s="109"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="109"/>
       <c r="B41" s="109"/>
       <c r="C41" s="109"/>
@@ -3955,7 +4022,7 @@
       <c r="I41" s="109"/>
       <c r="J41" s="109"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="109"/>
       <c r="B42" s="109"/>
       <c r="C42" s="109"/>
@@ -3967,7 +4034,7 @@
       <c r="I42" s="109"/>
       <c r="J42" s="109"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="109"/>
       <c r="B43" s="109"/>
       <c r="C43" s="109"/>
@@ -3979,10 +4046,10 @@
       <c r="I43" s="109"/>
       <c r="J43" s="109"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="109"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="109"/>
     </row>
   </sheetData>
@@ -3995,8 +4062,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A2:Q38"/>
@@ -4005,7 +4072,7 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
@@ -4027,8 +4094,8 @@
     <col min="18" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17" thickBot="1"/>
+    <row r="3" spans="1:17">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4046,7 +4113,7 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
     </row>
-    <row r="4" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="26" customFormat="1">
       <c r="B4" s="25"/>
       <c r="C4" s="89" t="s">
         <v>19</v>
@@ -4073,7 +4140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="18" customHeight="1">
       <c r="B5" s="45"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -4088,7 +4155,7 @@
       <c r="M5" s="47"/>
       <c r="N5" s="54"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4105,7 +4172,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="52"/>
     </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="17" thickBot="1">
       <c r="B7" s="45"/>
       <c r="C7" s="160" t="s">
         <v>105</v>
@@ -4128,7 +4195,7 @@
       <c r="M7" s="47"/>
       <c r="N7" s="105"/>
     </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="17" thickBot="1">
       <c r="B8" s="45"/>
       <c r="C8" s="107" t="s">
         <v>54</v>
@@ -4153,7 +4220,7 @@
       <c r="M8" s="47"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="17" thickBot="1">
       <c r="B9" s="45"/>
       <c r="C9" s="155" t="s">
         <v>102</v>
@@ -4177,7 +4244,7 @@
       <c r="M9" s="47"/>
       <c r="N9" s="105"/>
     </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="17" thickBot="1">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="106" t="s">
@@ -4203,7 +4270,7 @@
       <c r="N10" s="140"/>
       <c r="O10" s="109"/>
     </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="17" thickBot="1">
       <c r="A11" s="109"/>
       <c r="B11" s="110"/>
       <c r="C11" s="139" t="s">
@@ -4230,7 +4297,7 @@
       </c>
       <c r="O11" s="109"/>
     </row>
-    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="17" thickBot="1">
       <c r="A12" s="109"/>
       <c r="B12" s="110"/>
       <c r="C12" s="106" t="s">
@@ -4249,7 +4316,7 @@
       <c r="N12" s="140"/>
       <c r="O12" s="109"/>
     </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="17" thickBot="1">
       <c r="A13" s="109"/>
       <c r="B13" s="110"/>
       <c r="C13" s="106" t="s">
@@ -4269,7 +4336,7 @@
       <c r="N13" s="140"/>
       <c r="O13" s="109"/>
     </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="17" thickBot="1">
       <c r="A14" s="109"/>
       <c r="B14" s="110"/>
       <c r="C14" s="106" t="s">
@@ -4286,7 +4353,7 @@
       <c r="N14" s="140"/>
       <c r="O14" s="109"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="B15" s="45"/>
       <c r="H15" s="48"/>
       <c r="I15" s="106"/>
@@ -4296,7 +4363,7 @@
       <c r="M15" s="47"/>
       <c r="N15" s="140"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="109"/>
       <c r="B16" s="110"/>
       <c r="C16" s="34"/>
@@ -4309,7 +4376,7 @@
       <c r="M16" s="122"/>
       <c r="N16" s="54"/>
     </row>
-    <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="17" thickBot="1">
       <c r="A17" s="109"/>
       <c r="B17" s="110"/>
       <c r="C17" s="12" t="s">
@@ -4324,7 +4391,7 @@
       <c r="M17" s="122"/>
       <c r="N17" s="105"/>
     </row>
-    <row r="18" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="17" thickBot="1">
       <c r="A18" s="109"/>
       <c r="B18" s="110"/>
       <c r="C18" s="125" t="s">
@@ -4347,7 +4414,7 @@
       <c r="K18" s="122"/>
       <c r="N18" s="105"/>
     </row>
-    <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="17" thickBot="1">
       <c r="A19" s="109"/>
       <c r="B19" s="110"/>
       <c r="C19" s="125" t="s">
@@ -4370,7 +4437,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="17" thickBot="1">
       <c r="A20" s="109"/>
       <c r="B20" s="110"/>
       <c r="C20" s="125" t="s">
@@ -4393,7 +4460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="17" thickBot="1">
       <c r="A21" s="109"/>
       <c r="B21" s="110"/>
       <c r="C21" s="125" t="s">
@@ -4413,7 +4480,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="17" thickBot="1">
       <c r="A22" s="109"/>
       <c r="B22" s="110"/>
       <c r="C22" s="125" t="s">
@@ -4433,7 +4500,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="17" thickBot="1">
       <c r="A23" s="144"/>
       <c r="B23" s="145"/>
       <c r="C23" s="143" t="s">
@@ -4459,7 +4526,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="17" thickBot="1">
       <c r="A24" s="144"/>
       <c r="B24" s="145"/>
       <c r="C24" s="143" t="s">
@@ -4485,7 +4552,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="17" thickBot="1">
       <c r="A25" s="109"/>
       <c r="B25" s="110"/>
       <c r="C25" s="143" t="s">
@@ -4507,7 +4574,7 @@
       <c r="M25" s="115"/>
       <c r="N25" s="130"/>
     </row>
-    <row r="26" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="17" thickBot="1">
       <c r="A26" s="144"/>
       <c r="B26" s="145"/>
       <c r="C26" s="149" t="s">
@@ -4533,20 +4600,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="144"/>
       <c r="B27" s="145"/>
       <c r="H27" s="48"/>
       <c r="J27" s="48"/>
       <c r="N27" s="52"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="B28" s="45"/>
       <c r="H28" s="48"/>
       <c r="J28" s="48"/>
       <c r="N28" s="105"/>
     </row>
-    <row r="29" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="17" thickBot="1">
       <c r="A29" s="109"/>
       <c r="B29" s="110"/>
       <c r="C29" s="34" t="s">
@@ -4561,7 +4628,7 @@
       <c r="M29" s="11"/>
       <c r="N29" s="140"/>
     </row>
-    <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="17" thickBot="1">
       <c r="A30" s="109"/>
       <c r="B30" s="110"/>
       <c r="C30" s="124" t="s">
@@ -4584,7 +4651,7 @@
       <c r="M30" s="123"/>
       <c r="N30" s="140"/>
     </row>
-    <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="17" thickBot="1">
       <c r="A31" s="109"/>
       <c r="B31" s="110"/>
       <c r="C31" s="107" t="s">
@@ -4603,7 +4670,7 @@
       <c r="M31" s="123"/>
       <c r="N31" s="140"/>
     </row>
-    <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="17" thickBot="1">
       <c r="A32" s="109"/>
       <c r="B32" s="110"/>
       <c r="C32" s="120" t="s">
@@ -4622,7 +4689,7 @@
       <c r="M32" s="11"/>
       <c r="N32" s="130"/>
     </row>
-    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="17" thickBot="1">
       <c r="A33" s="109"/>
       <c r="B33" s="110"/>
       <c r="C33" s="102" t="s">
@@ -4635,7 +4702,7 @@
       <c r="J33" s="48"/>
       <c r="N33" s="105"/>
     </row>
-    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="17" thickBot="1">
       <c r="A34" s="109"/>
       <c r="B34" s="110"/>
       <c r="C34" s="106" t="s">
@@ -4645,7 +4712,7 @@
       <c r="J34" s="48"/>
       <c r="N34" s="140"/>
     </row>
-    <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="17" thickBot="1">
       <c r="A35" s="109"/>
       <c r="B35" s="110"/>
       <c r="C35" s="106" t="s">
@@ -4655,7 +4722,7 @@
       <c r="J35" s="48"/>
       <c r="N35" s="140"/>
     </row>
-    <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="17" thickBot="1">
       <c r="A36" s="109"/>
       <c r="B36" s="110"/>
       <c r="C36" s="106" t="s">
@@ -4665,7 +4732,7 @@
       <c r="J36" s="48"/>
       <c r="N36" s="140"/>
     </row>
-    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="17" thickBot="1">
       <c r="A37" s="109"/>
       <c r="B37" s="110"/>
       <c r="C37" s="106" t="s">
@@ -4675,7 +4742,7 @@
       <c r="J37" s="48"/>
       <c r="N37" s="140"/>
     </row>
-    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="17" thickBot="1">
       <c r="A38" s="109"/>
       <c r="B38" s="110"/>
       <c r="C38" s="106" t="s">
@@ -4692,8 +4759,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J30"/>
@@ -4702,7 +4769,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="56" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="56" customWidth="1"/>
@@ -4716,8 +4783,8 @@
     <col min="11" max="16384" width="33.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -4728,7 +4795,7 @@
       <c r="I2" s="62"/>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="59"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -4741,7 +4808,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="59"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -4752,7 +4819,7 @@
       <c r="I4" s="63"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="64"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -4779,7 +4846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="59"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4790,7 +4857,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="59"/>
       <c r="C7" s="157" t="s">
         <v>110</v>
@@ -4817,7 +4884,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="59"/>
       <c r="C8" s="156" t="s">
         <v>106</v>
@@ -4830,7 +4897,7 @@
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="59"/>
       <c r="C9" s="109" t="s">
         <v>24</v>
@@ -4842,7 +4909,7 @@
       <c r="H9" s="101"/>
       <c r="I9" s="55"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="59"/>
       <c r="C10" s="128" t="s">
         <v>82</v>
@@ -4855,7 +4922,7 @@
       <c r="I10" s="98"/>
       <c r="J10" s="97"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="59"/>
       <c r="C11" s="129" t="s">
         <v>56</v>
@@ -4868,7 +4935,7 @@
       <c r="I11" s="55"/>
       <c r="J11" s="114"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="59"/>
       <c r="C12" s="128" t="s">
         <v>84</v>
@@ -4881,7 +4948,7 @@
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="59"/>
       <c r="C13" s="129"/>
       <c r="D13" s="55"/>
@@ -4892,7 +4959,7 @@
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="59"/>
       <c r="C14" s="109"/>
       <c r="D14" s="133"/>
@@ -4903,7 +4970,7 @@
       <c r="I14" s="114"/>
       <c r="J14" s="96"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="59"/>
       <c r="E15" s="104"/>
       <c r="F15" s="55"/>
@@ -4912,7 +4979,7 @@
       <c r="I15" s="114"/>
       <c r="J15" s="96"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="59"/>
       <c r="C16" s="157"/>
       <c r="D16" s="109"/>
@@ -4923,15 +4990,15 @@
       <c r="I16" s="114"/>
       <c r="J16" s="55"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="59"/>
       <c r="C17" s="156"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="59"/>
       <c r="C18" s="109"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="59"/>
       <c r="C19" s="167"/>
       <c r="D19" s="170" t="s">
@@ -4953,7 +5020,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="59"/>
       <c r="C20" s="129"/>
       <c r="D20" s="55"/>
@@ -4964,7 +5031,7 @@
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="59"/>
       <c r="C21" s="167" t="s">
         <v>115</v>
@@ -4991,7 +5058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="59"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -5001,15 +5068,15 @@
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="H30" s="172"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1"/>
-    <hyperlink ref="J21" r:id="rId2"/>
-    <hyperlink ref="J19" r:id="rId3"/>
+    <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="J19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5017,8 +5084,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O242"/>
@@ -5027,7 +5094,7 @@
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="65" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="65" customWidth="1"/>
@@ -5042,8 +5109,8 @@
     <col min="17" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" thickBot="1"/>
+    <row r="2" spans="1:15">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -5058,7 +5125,7 @@
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="69"/>
       <c r="B3" s="94"/>
       <c r="C3" s="73" t="s">
@@ -5080,7 +5147,7 @@
       <c r="M3" s="70"/>
       <c r="N3" s="95"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -5096,7 +5163,7 @@
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" s="71"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -5111,7 +5178,7 @@
       <c r="N5" s="72"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="B6" s="71"/>
       <c r="D6" s="72"/>
       <c r="G6" s="72"/>
@@ -5124,7 +5191,7 @@
       <c r="N6" s="72"/>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="B7" s="71"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
@@ -5139,7 +5206,7 @@
       <c r="N7" s="72"/>
       <c r="O7" s="72"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="B8" s="71"/>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -5154,7 +5221,7 @@
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="B9" s="71"/>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
@@ -5170,7 +5237,7 @@
       <c r="N9" s="72"/>
       <c r="O9" s="72"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="B10" s="71"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
@@ -5186,7 +5253,7 @@
       <c r="N10" s="72"/>
       <c r="O10" s="72"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="B11" s="71"/>
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
@@ -5202,7 +5269,7 @@
       <c r="N11" s="72"/>
       <c r="O11" s="72"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="B12" s="71"/>
       <c r="C12" s="72"/>
       <c r="D12" s="72"/>
@@ -5218,7 +5285,7 @@
       <c r="N12" s="72"/>
       <c r="O12" s="72"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="B13" s="71"/>
       <c r="C13" s="72"/>
       <c r="D13" s="72"/>
@@ -5234,7 +5301,7 @@
       <c r="N13" s="72"/>
       <c r="O13" s="72"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
@@ -5250,7 +5317,7 @@
       <c r="N14" s="72"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="B15" s="71"/>
       <c r="E15" s="72"/>
       <c r="F15" s="72"/>
@@ -5264,7 +5331,7 @@
       <c r="N15" s="72"/>
       <c r="O15" s="72"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="B16" s="71"/>
       <c r="C16" s="72" t="s">
         <v>134</v>
@@ -5282,7 +5349,7 @@
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="71"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
@@ -5303,7 +5370,7 @@
       <c r="N17" s="72"/>
       <c r="O17" s="72"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="71"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
@@ -5318,7 +5385,7 @@
       <c r="N18" s="72"/>
       <c r="O18" s="72"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="71"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
@@ -5334,7 +5401,7 @@
       <c r="N19" s="72"/>
       <c r="O19" s="72"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="71"/>
       <c r="C20" s="72"/>
       <c r="D20" s="72"/>
@@ -5350,7 +5417,7 @@
       <c r="N20" s="72"/>
       <c r="O20" s="72"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="71"/>
       <c r="C21" s="72"/>
       <c r="D21" s="72"/>
@@ -5366,7 +5433,7 @@
       <c r="N21" s="72"/>
       <c r="O21" s="72"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="71"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
@@ -5382,7 +5449,7 @@
       <c r="N22" s="72"/>
       <c r="O22" s="72"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="71"/>
       <c r="C23" s="72"/>
       <c r="D23" s="72"/>
@@ -5398,7 +5465,7 @@
       <c r="N23" s="72"/>
       <c r="O23" s="72"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="71"/>
       <c r="C24" s="72" t="s">
         <v>104</v>
@@ -5418,7 +5485,7 @@
       <c r="N24" s="72"/>
       <c r="O24" s="72"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="71"/>
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>
@@ -5434,7 +5501,7 @@
       <c r="N25" s="72"/>
       <c r="O25" s="72"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="71"/>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
@@ -5450,7 +5517,7 @@
       <c r="N26" s="72"/>
       <c r="O26" s="72"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="71"/>
       <c r="C27" s="72"/>
       <c r="D27" s="72"/>
@@ -5466,7 +5533,7 @@
       <c r="N27" s="72"/>
       <c r="O27" s="72"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="71"/>
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
@@ -5482,7 +5549,7 @@
       <c r="N28" s="72"/>
       <c r="O28" s="72"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="71"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -5498,7 +5565,7 @@
       <c r="N29" s="72"/>
       <c r="O29" s="72"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="B30" s="71"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
@@ -5521,7 +5588,7 @@
       <c r="N30" s="72"/>
       <c r="O30" s="72"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
@@ -5537,7 +5604,7 @@
       <c r="N31" s="72"/>
       <c r="O31" s="72"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
@@ -5553,7 +5620,7 @@
       <c r="N32" s="72"/>
       <c r="O32" s="72"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="71"/>
       <c r="C33" s="72"/>
       <c r="E33" s="72"/>
@@ -5568,7 +5635,7 @@
       <c r="N33" s="72"/>
       <c r="O33" s="72"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="71"/>
       <c r="E34" s="72"/>
       <c r="H34" s="72"/>
@@ -5580,7 +5647,7 @@
       <c r="N34" s="72"/>
       <c r="O34" s="72"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" s="71"/>
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
@@ -5596,7 +5663,7 @@
       <c r="N35" s="72"/>
       <c r="O35" s="72"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" s="71"/>
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
@@ -5612,7 +5679,7 @@
       <c r="N36" s="72"/>
       <c r="O36" s="72"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" s="71"/>
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
@@ -5628,7 +5695,7 @@
       <c r="N37" s="72"/>
       <c r="O37" s="72"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" s="71"/>
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
@@ -5642,7 +5709,7 @@
       <c r="N38" s="72"/>
       <c r="O38" s="72"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" s="71"/>
       <c r="C39" s="72"/>
       <c r="D39" s="72"/>
@@ -5662,7 +5729,7 @@
       <c r="N39" s="72"/>
       <c r="O39" s="72"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" s="71"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -5678,7 +5745,7 @@
       <c r="N40" s="72"/>
       <c r="O40" s="72"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" s="71"/>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
@@ -5694,7 +5761,7 @@
       <c r="N41" s="72"/>
       <c r="O41" s="72"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" s="71"/>
       <c r="C42" s="72"/>
       <c r="K42" s="72"/>
@@ -5703,7 +5770,7 @@
       <c r="N42" s="72"/>
       <c r="O42" s="72"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" s="71"/>
       <c r="C43" s="72"/>
       <c r="K43" s="72"/>
@@ -5712,7 +5779,7 @@
       <c r="N43" s="72"/>
       <c r="O43" s="72"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" s="71"/>
       <c r="C44" s="72"/>
       <c r="K44" s="72"/>
@@ -5721,7 +5788,7 @@
       <c r="N44" s="72"/>
       <c r="O44" s="72"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" s="71"/>
       <c r="C45" s="72"/>
       <c r="K45" s="72"/>
@@ -5730,7 +5797,7 @@
       <c r="N45" s="72"/>
       <c r="O45" s="72"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" s="71"/>
       <c r="C46" s="72"/>
       <c r="E46" s="100"/>
@@ -5741,7 +5808,7 @@
       <c r="N46" s="72"/>
       <c r="O46" s="72"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
       <c r="E47" s="72"/>
@@ -5752,7 +5819,7 @@
       <c r="N47" s="72"/>
       <c r="O47" s="72"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="B48" s="71"/>
       <c r="C48" s="72"/>
       <c r="E48" s="65">
@@ -5767,7 +5834,7 @@
       <c r="N48" s="72"/>
       <c r="O48" s="72"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15">
       <c r="B49" s="71"/>
       <c r="C49" s="72"/>
       <c r="E49" s="65">
@@ -5786,7 +5853,7 @@
       <c r="N49" s="72"/>
       <c r="O49" s="72"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15">
       <c r="B50" s="71"/>
       <c r="C50" s="72"/>
       <c r="J50"/>
@@ -5796,7 +5863,7 @@
       <c r="N50" s="72"/>
       <c r="O50" s="72"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15">
       <c r="B51" s="71"/>
       <c r="D51" s="72"/>
       <c r="K51" s="72"/>
@@ -5805,7 +5872,7 @@
       <c r="N51" s="72"/>
       <c r="O51" s="72"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15">
       <c r="B52" s="71"/>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -5821,7 +5888,7 @@
       <c r="N52" s="72"/>
       <c r="O52" s="72"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15">
       <c r="B53" s="71"/>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
@@ -5841,7 +5908,7 @@
       <c r="N53" s="72"/>
       <c r="O53" s="72"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15">
       <c r="B54" s="71"/>
       <c r="C54" s="72"/>
       <c r="D54" s="72"/>
@@ -5857,7 +5924,7 @@
       <c r="N54" s="72"/>
       <c r="O54" s="72"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15">
       <c r="B55" s="71"/>
       <c r="C55" s="72"/>
       <c r="D55" s="72"/>
@@ -5877,7 +5944,7 @@
       <c r="N55" s="72"/>
       <c r="O55" s="72"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15">
       <c r="B56" s="71"/>
       <c r="C56" s="72"/>
       <c r="K56" s="72"/>
@@ -5886,7 +5953,7 @@
       <c r="N56" s="72"/>
       <c r="O56" s="72"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15">
       <c r="B57" s="71"/>
       <c r="C57" s="72"/>
       <c r="E57" s="65">
@@ -5904,7 +5971,7 @@
       <c r="N57" s="72"/>
       <c r="O57" s="72"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15">
       <c r="B58" s="71"/>
       <c r="C58" s="72"/>
       <c r="K58" s="72"/>
@@ -5913,7 +5980,7 @@
       <c r="N58" s="72"/>
       <c r="O58" s="72"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15">
       <c r="B59" s="71"/>
       <c r="C59" s="72"/>
       <c r="K59" s="72"/>
@@ -5922,7 +5989,7 @@
       <c r="N59" s="72"/>
       <c r="O59" s="72"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15">
       <c r="B60" s="71"/>
       <c r="C60" s="72"/>
       <c r="K60" s="72"/>
@@ -5931,7 +5998,7 @@
       <c r="N60" s="72"/>
       <c r="O60" s="72"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15">
       <c r="B61" s="71"/>
       <c r="C61" s="72"/>
       <c r="K61" s="72"/>
@@ -5940,7 +6007,7 @@
       <c r="N61" s="72"/>
       <c r="O61" s="72"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15">
       <c r="B62" s="71"/>
       <c r="C62" s="72"/>
       <c r="K62" s="72"/>
@@ -5949,7 +6016,7 @@
       <c r="N62" s="72"/>
       <c r="O62" s="72"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15">
       <c r="B63" s="71"/>
       <c r="C63" s="72"/>
       <c r="K63" s="72"/>
@@ -5958,7 +6025,7 @@
       <c r="N63" s="72"/>
       <c r="O63" s="72"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15">
       <c r="B64" s="71"/>
       <c r="C64" s="72"/>
       <c r="K64" s="72"/>
@@ -5967,7 +6034,7 @@
       <c r="N64" s="72"/>
       <c r="O64" s="72"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15">
       <c r="B65" s="71"/>
       <c r="C65" s="72"/>
       <c r="K65" s="72"/>
@@ -5976,7 +6043,7 @@
       <c r="N65" s="72"/>
       <c r="O65" s="72"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15">
       <c r="B66" s="71"/>
       <c r="C66" s="72"/>
       <c r="K66" s="72"/>
@@ -5985,7 +6052,7 @@
       <c r="N66" s="72"/>
       <c r="O66" s="72"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15">
       <c r="B67" s="71"/>
       <c r="C67" s="72"/>
       <c r="K67" s="72"/>
@@ -5994,7 +6061,7 @@
       <c r="N67" s="72"/>
       <c r="O67" s="72"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15">
       <c r="B68" s="71"/>
       <c r="C68" s="72"/>
       <c r="K68" s="72"/>
@@ -6003,7 +6070,7 @@
       <c r="N68" s="72"/>
       <c r="O68" s="72"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15">
       <c r="B69" s="71"/>
       <c r="C69" s="72"/>
       <c r="K69" s="72"/>
@@ -6012,7 +6079,7 @@
       <c r="N69" s="72"/>
       <c r="O69" s="72"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15">
       <c r="B70" s="71"/>
       <c r="C70" s="72"/>
       <c r="K70" s="72"/>
@@ -6021,22 +6088,22 @@
       <c r="N70" s="72"/>
       <c r="O70" s="72"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15">
       <c r="B71" s="71"/>
       <c r="N71" s="72"/>
       <c r="O71" s="72"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15">
       <c r="B72" s="71"/>
       <c r="N72" s="72"/>
       <c r="O72" s="72"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15">
       <c r="B73" s="71"/>
       <c r="N73" s="72"/>
       <c r="O73" s="72"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15">
       <c r="B74" s="71"/>
       <c r="C74" s="170" t="s">
         <v>119</v>
@@ -6044,26 +6111,26 @@
       <c r="N74" s="72"/>
       <c r="O74" s="72"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15">
       <c r="B75" s="71"/>
       <c r="C75" s="72"/>
       <c r="D75" s="72"/>
       <c r="N75" s="72"/>
       <c r="O75" s="72"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15">
       <c r="B76" s="71"/>
       <c r="C76" s="72"/>
       <c r="N76" s="72"/>
       <c r="O76" s="72"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15">
       <c r="B77" s="71"/>
       <c r="E77" s="153"/>
       <c r="N77" s="72"/>
       <c r="O77" s="72"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15">
       <c r="B78" s="71"/>
       <c r="E78" s="65">
         <v>50</v>
@@ -6077,208 +6144,208 @@
       <c r="N78" s="72"/>
       <c r="O78" s="72"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15">
       <c r="B79" s="71"/>
       <c r="N79" s="72"/>
       <c r="O79" s="72"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15">
       <c r="B80" s="71"/>
       <c r="F80" s="131"/>
       <c r="N80" s="72"/>
       <c r="O80" s="72"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15">
       <c r="B81" s="71"/>
       <c r="N81" s="72"/>
       <c r="O81" s="72"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15">
       <c r="B82" s="71"/>
       <c r="N82" s="72"/>
       <c r="O82" s="72"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15">
       <c r="B83" s="71"/>
       <c r="N83" s="72"/>
       <c r="O83" s="72"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15">
       <c r="B84" s="71"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15">
       <c r="B85" s="71"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15">
       <c r="B86" s="71"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15">
       <c r="B87" s="71"/>
       <c r="C87" s="72"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15">
       <c r="B88" s="71"/>
       <c r="C88" s="72"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15">
       <c r="B89" s="71"/>
       <c r="C89" s="72"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15">
       <c r="B90" s="71"/>
       <c r="C90" s="72"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15">
       <c r="B91" s="71"/>
       <c r="C91" s="72"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15">
       <c r="B92" s="71"/>
       <c r="C92" s="72"/>
       <c r="E92" s="132"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15">
       <c r="B93" s="71"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15">
       <c r="B94" s="71"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15">
       <c r="B95" s="71"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15">
       <c r="B96" s="71"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="71"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="71"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="71"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="71"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="71"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="71"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="71"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="71"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="71"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="71"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="71"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="71"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="71"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="71"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="71"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="71"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="71"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="71"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="71"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="71"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="71"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="71"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="71"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="71"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="71"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="71"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="71"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="71"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="71"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="71"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="71"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="71"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4">
       <c r="B129" s="71"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4">
       <c r="B130" s="71"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4">
       <c r="B131" s="71"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4">
       <c r="B132" s="71"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4">
       <c r="B133" s="71"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4">
       <c r="B134" s="71"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4">
       <c r="B135" s="71"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4">
       <c r="B136" s="71"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4">
       <c r="B137" s="71"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4">
       <c r="B138" s="71"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4">
       <c r="B139" s="71"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4">
       <c r="B140" s="71"/>
       <c r="C140" s="65" t="s">
         <v>116</v>
@@ -6287,416 +6354,416 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4">
       <c r="B141" s="71"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4">
       <c r="B142" s="71"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4">
       <c r="B143" s="71"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4">
       <c r="B144" s="71"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" s="152"/>
       <c r="B145" s="154"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="152"/>
       <c r="B146" s="154"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="152"/>
       <c r="B147" s="154"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="152"/>
       <c r="B148" s="154"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="152"/>
       <c r="B149" s="154"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="152"/>
       <c r="B150" s="154"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="152"/>
       <c r="B151" s="154"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="152"/>
       <c r="B152" s="154"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="152"/>
       <c r="B153" s="154"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="152"/>
       <c r="B154" s="154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="152"/>
       <c r="B155" s="154"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="152"/>
       <c r="B156" s="154"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="152"/>
       <c r="B157" s="154"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="152"/>
       <c r="B158" s="154"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="152"/>
       <c r="B159" s="154"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="152"/>
       <c r="B160" s="154"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="152"/>
       <c r="B161" s="154"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="152"/>
       <c r="B162" s="154"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="152"/>
       <c r="B163" s="154"/>
       <c r="E163" s="65" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="152"/>
       <c r="B164" s="154"/>
       <c r="E164" s="65" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="152"/>
       <c r="B165" s="154"/>
       <c r="E165" s="65" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="152"/>
       <c r="B166" s="154"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="152"/>
       <c r="B167" s="154"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="152"/>
       <c r="B168" s="154"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="152"/>
       <c r="B169" s="154"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="152"/>
       <c r="B170" s="154"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="152"/>
       <c r="B171" s="154"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="152"/>
       <c r="B172" s="154"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="152"/>
       <c r="B173" s="154"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="152"/>
       <c r="B174" s="154"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="152"/>
       <c r="B175" s="154"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="152"/>
       <c r="B176" s="154"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" s="152"/>
       <c r="B177" s="154"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" s="152"/>
       <c r="B178" s="154"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" s="152"/>
       <c r="B179" s="154"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" s="152"/>
       <c r="B180" s="154"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" s="152"/>
       <c r="B181" s="154"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" s="152"/>
       <c r="B182" s="154"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" s="152"/>
       <c r="B183" s="154"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" s="152"/>
       <c r="B184" s="154"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" s="152"/>
       <c r="B185" s="154"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="152"/>
       <c r="B186" s="154"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187" s="152"/>
       <c r="B187" s="154"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" s="152"/>
       <c r="B188" s="154"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189" s="152"/>
       <c r="B189" s="154"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" s="152"/>
       <c r="B190" s="154"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191" s="152"/>
       <c r="B191" s="154"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" s="152"/>
       <c r="B192" s="154"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" s="152"/>
       <c r="B193" s="154"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" s="152"/>
       <c r="B194" s="154"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" s="152"/>
       <c r="B195" s="154"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" s="152"/>
       <c r="B196" s="154"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="152"/>
       <c r="B197" s="154"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="152"/>
       <c r="B198" s="154"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="152"/>
       <c r="B199" s="154"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" s="152"/>
       <c r="B200" s="154"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" s="152"/>
       <c r="B201" s="154"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" s="152"/>
       <c r="B202" s="154"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" s="152"/>
       <c r="B203" s="154"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" s="152"/>
       <c r="B204" s="154"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" s="152"/>
       <c r="B205" s="154"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" s="152"/>
       <c r="B206" s="154"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" s="152"/>
       <c r="B207" s="154"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" s="152"/>
       <c r="B208" s="154"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209" s="152"/>
       <c r="B209" s="154"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210" s="152"/>
       <c r="B210" s="154"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211" s="152"/>
       <c r="B211" s="154"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212" s="152"/>
       <c r="B212" s="154"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213" s="152"/>
       <c r="B213" s="154"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214" s="152"/>
       <c r="B214" s="154"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215" s="152"/>
       <c r="B215" s="154"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216" s="152"/>
       <c r="B216" s="154"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217" s="152"/>
       <c r="B217" s="154"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218" s="152"/>
       <c r="B218" s="154"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219" s="152"/>
       <c r="B219" s="154"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220" s="152"/>
       <c r="B220" s="154"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" s="152"/>
       <c r="B221" s="154"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" s="152"/>
       <c r="B222" s="154"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223" s="152"/>
       <c r="B223" s="154"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224" s="152"/>
       <c r="B224" s="154"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="152"/>
       <c r="B225" s="154"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" s="152"/>
       <c r="B226" s="154"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" s="152"/>
       <c r="B227" s="154"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" s="152"/>
       <c r="B228" s="154"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" s="152"/>
       <c r="B229" s="154"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" s="152"/>
       <c r="B230" s="154"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" s="152"/>
       <c r="B231" s="154"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" s="152"/>
       <c r="B232" s="154"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" s="152"/>
       <c r="B233" s="154"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" s="152"/>
       <c r="B234" s="154"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" s="152"/>
       <c r="B235" s="154"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" s="152"/>
       <c r="B236" s="154"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="152"/>
       <c r="B237" s="154"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="152"/>
       <c r="B238" s="154"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="152"/>
       <c r="B239" s="154"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="152"/>
       <c r="B240" s="154"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" s="152"/>
       <c r="B241" s="154"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" s="152"/>
       <c r="B242" s="154"/>
     </row>
